--- a/src/test/resources/qaautomation.xlsx
+++ b/src/test/resources/qaautomation.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">After Life (TV Series 2019– ) - IMDb</t>
   </si>
   <si>
-    <t xml:space="preserve">tony.way79@gmail.com</t>
+    <t xml:space="preserve">tony.way85@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Emumba Pvt. Limited, Korang Road I-10/3 Islamabad.</t>
@@ -713,7 +713,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.81"/>
   </cols>
@@ -801,7 +801,7 @@
       <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.96"/>
   </cols>
@@ -923,7 +923,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1133,7 +1133,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/test/resources/qaautomation.xlsx
+++ b/src/test/resources/qaautomation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="324">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">After Life (TV Series 2019– ) - IMDb</t>
   </si>
   <si>
-    <t xml:space="preserve">tony.way85@gmail.com</t>
+    <t xml:space="preserve">tony.way86@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Emumba Pvt. Limited, Korang Road I-10/3 Islamabad.</t>
@@ -106,10 +106,10 @@
     <t xml:space="preserve">POST</t>
   </si>
   <si>
-    <t xml:space="preserve">{    "first_name": "Ali",    "last_name": "Ahmad",    "email": "ali.ahmad223@gmail.com",    "password": "12345",    "confirm_password": "12345"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">["email", "first_name", "last_name", "plan", "id", "access_token", "refresh_token"]</t>
+    <t xml:space="preserve">{    "first_name": "Ali",    "last_name": "Ahmad",    "email": "ali.ahmad232@gmail.com",    "password": "12345",    "confirm_password": "12345"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["email","first_name","last_name","plan","id","access_token","refresh_token"]</t>
   </si>
   <si>
     <t xml:space="preserve">https://emumba-test.herokuapp.com/user/login</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">{    "email": "ali.ahmad222@gmail.com",    "password": "12345"}</t>
   </si>
   <si>
-    <t xml:space="preserve">["email", "first_name", "last_name", "plan", "id"]</t>
+    <t xml:space="preserve">["email","first_name","last_name","plan","id"]</t>
   </si>
   <si>
     <t xml:space="preserve">Series Cast</t>
@@ -602,6 +602,399 @@
   </si>
   <si>
     <t xml:space="preserve"> Kath's Date (uncredited)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ricky Gervais</t>
+  </si>
+  <si>
+    <t>Stage Name</t>
+  </si>
+  <si>
+    <t> Tony</t>
+  </si>
+  <si>
+    <t>Appearances</t>
+  </si>
+  <si>
+    <t>Tom Basden</t>
+  </si>
+  <si>
+    <t> Matt</t>
+  </si>
+  <si>
+    <t>Tony Way</t>
+  </si>
+  <si>
+    <t> Lenny</t>
+  </si>
+  <si>
+    <t>Diane Morgan</t>
+  </si>
+  <si>
+    <t> Kath</t>
+  </si>
+  <si>
+    <t>Mandeep Dhillon</t>
+  </si>
+  <si>
+    <t> Sandy</t>
+  </si>
+  <si>
+    <t>David Bradley</t>
+  </si>
+  <si>
+    <t> Tony's Dad</t>
+  </si>
+  <si>
+    <t>Kerry Godliman</t>
+  </si>
+  <si>
+    <t> Lisa</t>
+  </si>
+  <si>
+    <t>Ashley Jensen</t>
+  </si>
+  <si>
+    <t> Nurse</t>
+  </si>
+  <si>
+    <t>Paul Kaye</t>
+  </si>
+  <si>
+    <t> Psychiatrist</t>
+  </si>
+  <si>
+    <t>Anti</t>
+  </si>
+  <si>
+    <t> Brandy the Dog</t>
+  </si>
+  <si>
+    <t>Penelope Wilton</t>
+  </si>
+  <si>
+    <t> Anne</t>
+  </si>
+  <si>
+    <t>Joe Wilkinson</t>
+  </si>
+  <si>
+    <t> Postman</t>
+  </si>
+  <si>
+    <t>Michelle Greenidge</t>
+  </si>
+  <si>
+    <t> Receptionist</t>
+  </si>
+  <si>
+    <t>Roisin Conaty</t>
+  </si>
+  <si>
+    <t> Roxy</t>
+  </si>
+  <si>
+    <t>Tommy Finnegan</t>
+  </si>
+  <si>
+    <t> George</t>
+  </si>
+  <si>
+    <t>Jo Hartley</t>
+  </si>
+  <si>
+    <t> June</t>
+  </si>
+  <si>
+    <t>David Earl</t>
+  </si>
+  <si>
+    <t> Brian</t>
+  </si>
+  <si>
+    <t>Ethan Lawrence</t>
+  </si>
+  <si>
+    <t>Laura Patch</t>
+  </si>
+  <si>
+    <t> Jill</t>
+  </si>
+  <si>
+    <t>Tim Plester</t>
+  </si>
+  <si>
+    <t> Julian</t>
+  </si>
+  <si>
+    <t>Thomas Bastable</t>
+  </si>
+  <si>
+    <t> Robbie</t>
+  </si>
+  <si>
+    <t>Tracy Ann Oberman</t>
+  </si>
+  <si>
+    <t>Peter Egan</t>
+  </si>
+  <si>
+    <t> Paul</t>
+  </si>
+  <si>
+    <t>Colin Hoult</t>
+  </si>
+  <si>
+    <t> Ken</t>
+  </si>
+  <si>
+    <t>Bill Ward</t>
+  </si>
+  <si>
+    <t> Simon</t>
+  </si>
+  <si>
+    <t>Kayla Meikle</t>
+  </si>
+  <si>
+    <t> Nurse 2</t>
+  </si>
+  <si>
+    <t>Annette Crosbie</t>
+  </si>
+  <si>
+    <t> 100 Year Old Woman</t>
+  </si>
+  <si>
+    <t>Ninette Finch</t>
+  </si>
+  <si>
+    <t> Newsagent</t>
+  </si>
+  <si>
+    <t>Daniel Copeland</t>
+  </si>
+  <si>
+    <t> Man in Park</t>
+  </si>
+  <si>
+    <t>Tim Fitzhigham</t>
+  </si>
+  <si>
+    <t> Waiter</t>
+  </si>
+  <si>
+    <t>Alexander Kirk</t>
+  </si>
+  <si>
+    <t> Stain Man</t>
+  </si>
+  <si>
+    <t>Adrian McLoughlin</t>
+  </si>
+  <si>
+    <t> 5 Card Man</t>
+  </si>
+  <si>
+    <t>Sean McLoughlin</t>
+  </si>
+  <si>
+    <t> Comedian</t>
+  </si>
+  <si>
+    <t>Nicky B</t>
+  </si>
+  <si>
+    <t> Fat Woman</t>
+  </si>
+  <si>
+    <t>Megan Heffernan</t>
+  </si>
+  <si>
+    <t> Breast Milk Woman</t>
+  </si>
+  <si>
+    <t>Nancy Sullivan</t>
+  </si>
+  <si>
+    <t> Café Waitress</t>
+  </si>
+  <si>
+    <t>Seb Cardinal</t>
+  </si>
+  <si>
+    <t> Yoga Instructor</t>
+  </si>
+  <si>
+    <t>Brendan Howley</t>
+  </si>
+  <si>
+    <t> Shop Assistant</t>
+  </si>
+  <si>
+    <t>Kath Hughes</t>
+  </si>
+  <si>
+    <t> Supermarket Assistant</t>
+  </si>
+  <si>
+    <t>Dan Li</t>
+  </si>
+  <si>
+    <t> Homeless Man</t>
+  </si>
+  <si>
+    <t>Beth Mullen</t>
+  </si>
+  <si>
+    <t> Baby Hitler's Mum</t>
+  </si>
+  <si>
+    <t>Nikhil Parmar</t>
+  </si>
+  <si>
+    <t> Charity Collector</t>
+  </si>
+  <si>
+    <t>Islam Bouakkaz</t>
+  </si>
+  <si>
+    <t> Mugger</t>
+  </si>
+  <si>
+    <t>Mark Weinman</t>
+  </si>
+  <si>
+    <t> Baby Hitler's Dad</t>
+  </si>
+  <si>
+    <t>Gillian Axtell</t>
+  </si>
+  <si>
+    <t> Psych Receptionist</t>
+  </si>
+  <si>
+    <t>Steve Brody</t>
+  </si>
+  <si>
+    <t> Crematorium Official</t>
+  </si>
+  <si>
+    <t>Holli Dempsey</t>
+  </si>
+  <si>
+    <t> Plastic Surgery Woman</t>
+  </si>
+  <si>
+    <t>Toby Foster</t>
+  </si>
+  <si>
+    <t> Dennis</t>
+  </si>
+  <si>
+    <t>Julia Dearden</t>
+  </si>
+  <si>
+    <t> Nun</t>
+  </si>
+  <si>
+    <t>Lucy Speed</t>
+  </si>
+  <si>
+    <t> Tracy</t>
+  </si>
+  <si>
+    <t>Steve Speirs</t>
+  </si>
+  <si>
+    <t> Dog Waste Man</t>
+  </si>
+  <si>
+    <t>Yvonne Edgell</t>
+  </si>
+  <si>
+    <t> Cat Woman</t>
+  </si>
+  <si>
+    <t>Grace Wood</t>
+  </si>
+  <si>
+    <t> Daughter</t>
+  </si>
+  <si>
+    <t>Andrew Brooke</t>
+  </si>
+  <si>
+    <t> Ratty</t>
+  </si>
+  <si>
+    <t>Dan Mersh</t>
+  </si>
+  <si>
+    <t> Vicar</t>
+  </si>
+  <si>
+    <t>Tom Bennett</t>
+  </si>
+  <si>
+    <t> The Nonce</t>
+  </si>
+  <si>
+    <t>Sophie Fletcher</t>
+  </si>
+  <si>
+    <t> Woman in Pub</t>
+  </si>
+  <si>
+    <t>Ken Byrd</t>
+  </si>
+  <si>
+    <t> Passerby (uncredited)</t>
+  </si>
+  <si>
+    <t>Myra Ford</t>
+  </si>
+  <si>
+    <t> Checkout Assistant (uncredited)</t>
+  </si>
+  <si>
+    <t>Ty Hurley</t>
+  </si>
+  <si>
+    <t> Office Passerby (uncredited)</t>
+  </si>
+  <si>
+    <t>Karen-J Sear</t>
+  </si>
+  <si>
+    <t> Passer by (uncredited)</t>
+  </si>
+  <si>
+    <t>Marc Hockley</t>
+  </si>
+  <si>
+    <t> Wedding Guest (uncredited)</t>
+  </si>
+  <si>
+    <t>Ross Owen</t>
+  </si>
+  <si>
+    <t> Man in Cafe (uncredited)</t>
+  </si>
+  <si>
+    <t>Gleb Smatko</t>
+  </si>
+  <si>
+    <t> Cafe Patron (uncredited)</t>
+  </si>
+  <si>
+    <t>Robert Woodhall</t>
+  </si>
+  <si>
+    <t> Kath's Date (uncredited)</t>
   </si>
 </sst>
 </file>
@@ -715,7 +1108,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.81"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="24.81" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,12 +1191,12 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.96"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="65.96" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,729 +1528,729 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    <row r="3">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="4">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    <row r="5">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="0" t="s">
+    <row r="6">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="0" t="s">
+    <row r="7">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="0" t="s">
+    <row r="8">
+      <c r="A8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="0" t="s">
+    <row r="9">
+      <c r="A9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="0" t="s">
+    <row r="10">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="0" t="s">
+    <row r="11">
+      <c r="A11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="0" t="s">
+    <row r="12">
+      <c r="A12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="0" t="s">
+    <row r="13">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="0" t="s">
+    <row r="14">
+      <c r="A14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="0" t="s">
+    <row r="15">
+      <c r="A15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="0" t="s">
+    <row r="16">
+      <c r="A16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="0" t="s">
+    <row r="17">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="0" t="s">
+    <row r="18">
+      <c r="A18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="0" t="s">
+    <row r="19">
+      <c r="A19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="0" t="s">
+    <row r="20">
+      <c r="A20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="0" t="s">
+    <row r="21">
+      <c r="A21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="0" t="s">
+    <row r="22">
+      <c r="A22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="0" t="s">
+    <row r="23">
+      <c r="A23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="0" t="s">
+    <row r="24">
+      <c r="A24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="0" t="s">
+    <row r="25">
+      <c r="A25" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="0" t="s">
+    <row r="26">
+      <c r="A26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="0" t="s">
+    <row r="27">
+      <c r="A27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="0" t="s">
+    <row r="28">
+      <c r="A28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="0" t="s">
+    <row r="29">
+      <c r="A29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="0" t="s">
+    <row r="30">
+      <c r="A30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="0" t="s">
+    <row r="31">
+      <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="0" t="s">
+    <row r="32">
+      <c r="A32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="0" t="s">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="0" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="0" t="s">
+    <row r="35">
+      <c r="A35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="0" t="s">
+    <row r="36">
+      <c r="A36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C36" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="0" t="s">
+    <row r="37">
+      <c r="A37" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C37" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="0" t="s">
+    <row r="38">
+      <c r="A38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="0" t="s">
+    <row r="39">
+      <c r="A39" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="0" t="s">
+    <row r="40">
+      <c r="A40" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="0" t="s">
+    <row r="41">
+      <c r="A41" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41" t="s">
+        <v>273</v>
+      </c>
+      <c r="C41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="0" t="s">
+    <row r="42">
+      <c r="A42" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="0" t="s">
+    <row r="43">
+      <c r="A43" t="s">
+        <v>276</v>
+      </c>
+      <c r="B43" t="s">
+        <v>277</v>
+      </c>
+      <c r="C43" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="0" t="s">
+    <row r="44">
+      <c r="A44" t="s">
+        <v>278</v>
+      </c>
+      <c r="B44" t="s">
+        <v>279</v>
+      </c>
+      <c r="C44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="0" t="s">
+    <row r="45">
+      <c r="A45" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="0" t="s">
+    <row r="46">
+      <c r="A46" t="s">
+        <v>282</v>
+      </c>
+      <c r="B46" t="s">
+        <v>283</v>
+      </c>
+      <c r="C46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="0" t="s">
+    <row r="47">
+      <c r="A47" t="s">
+        <v>284</v>
+      </c>
+      <c r="B47" t="s">
+        <v>285</v>
+      </c>
+      <c r="C47" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" s="0" t="s">
+    <row r="48">
+      <c r="A48" t="s">
+        <v>286</v>
+      </c>
+      <c r="B48" t="s">
+        <v>287</v>
+      </c>
+      <c r="C48" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" s="0" t="s">
+    <row r="49">
+      <c r="A49" t="s">
+        <v>288</v>
+      </c>
+      <c r="B49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C49" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="0" t="s">
+    <row r="50">
+      <c r="A50" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" s="0" t="s">
+    <row r="51">
+      <c r="A51" t="s">
+        <v>292</v>
+      </c>
+      <c r="B51" t="s">
+        <v>293</v>
+      </c>
+      <c r="C51" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" s="0" t="s">
+    <row r="52">
+      <c r="A52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B52" t="s">
+        <v>295</v>
+      </c>
+      <c r="C52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="0" t="s">
+    <row r="53">
+      <c r="A53" t="s">
+        <v>296</v>
+      </c>
+      <c r="B53" t="s">
+        <v>297</v>
+      </c>
+      <c r="C53" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="0" t="s">
+    <row r="54">
+      <c r="A54" t="s">
+        <v>298</v>
+      </c>
+      <c r="B54" t="s">
+        <v>299</v>
+      </c>
+      <c r="C54" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="C55" s="0" t="s">
+    <row r="55">
+      <c r="A55" t="s">
+        <v>300</v>
+      </c>
+      <c r="B55" t="s">
+        <v>301</v>
+      </c>
+      <c r="C55" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C56" s="0" t="s">
+    <row r="56">
+      <c r="A56" t="s">
+        <v>302</v>
+      </c>
+      <c r="B56" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="0" t="s">
+    <row r="57">
+      <c r="A57" t="s">
+        <v>304</v>
+      </c>
+      <c r="B57" t="s">
+        <v>305</v>
+      </c>
+      <c r="C57" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="0" t="s">
+    <row r="58">
+      <c r="A58" t="s">
+        <v>306</v>
+      </c>
+      <c r="B58" t="s">
+        <v>307</v>
+      </c>
+      <c r="C58" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" s="0" t="s">
+    <row r="59">
+      <c r="A59" t="s">
+        <v>308</v>
+      </c>
+      <c r="B59" t="s">
+        <v>309</v>
+      </c>
+      <c r="C59" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="C60" s="0" t="s">
+    <row r="60">
+      <c r="A60" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C60" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C61" s="0" t="s">
+    <row r="61">
+      <c r="A61" t="s">
+        <v>312</v>
+      </c>
+      <c r="B61" t="s">
+        <v>313</v>
+      </c>
+      <c r="C61" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C62" s="0" t="s">
+    <row r="62">
+      <c r="A62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B62" t="s">
+        <v>315</v>
+      </c>
+      <c r="C62" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C63" s="0" t="s">
+    <row r="63">
+      <c r="A63" t="s">
+        <v>316</v>
+      </c>
+      <c r="B63" t="s">
+        <v>317</v>
+      </c>
+      <c r="C63" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="0" t="s">
+    <row r="64">
+      <c r="A64" t="s">
+        <v>318</v>
+      </c>
+      <c r="B64" t="s">
+        <v>319</v>
+      </c>
+      <c r="C64" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C65" s="0" t="s">
+    <row r="65">
+      <c r="A65" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C66" s="0" t="s">
+    <row r="66">
+      <c r="A66" t="s">
+        <v>322</v>
+      </c>
+      <c r="B66" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" t="s">
         <v>118</v>
       </c>
     </row>

--- a/src/test/resources/qaautomation.xlsx
+++ b/src/test/resources/qaautomation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" state="visible" r:id="rId2"/>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">After Life (TV Series 2019– ) - IMDb</t>
   </si>
   <si>
-    <t xml:space="preserve">tony.way86@gmail.com</t>
+    <t xml:space="preserve">tony.way88@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Emumba Pvt. Limited, Korang Road I-10/3 Islamabad.</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Expected Response Size in kilobyte (less than)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://emumba-test.herokuapp.com/trend</t>
+    <t xml:space="preserve">https://emumba-test.herokuapp.com/trend/</t>
   </si>
   <si>
     <t xml:space="preserve">GET</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">POST</t>
   </si>
   <si>
-    <t xml:space="preserve">{    "first_name": "Ali",    "last_name": "Ahmad",    "email": "ali.ahmad232@gmail.com",    "password": "12345",    "confirm_password": "12345"}</t>
+    <t xml:space="preserve">{    "first_name": "Ali",    "last_name": "Ahmad",    "email": "ali.ahmad236@gmail.com",    "password": "12345",    "confirm_password": "12345"}</t>
   </si>
   <si>
     <t xml:space="preserve">["email","first_name","last_name","plan","id","access_token","refresh_token"]</t>
@@ -1102,11 +1102,11 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="24.81" collapsed="true" outlineLevel="0"/>
   </cols>
@@ -1190,11 +1190,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="3" max="3" customWidth="true" hidden="false" style="0" width="65.96" collapsed="true" outlineLevel="0"/>
   </cols>
@@ -1222,7 +1222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1316,7 +1316,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1526,7 +1526,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/src/test/resources/qaautomation.xlsx
+++ b/src/test/resources/qaautomation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="324">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
@@ -61,7 +61,35 @@
     <t xml:space="preserve">After Life (TV Series 2019– ) - IMDb</t>
   </si>
   <si>
-    <t xml:space="preserve">tony.way88@gmail.com</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">tony.way</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[@here]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">@gmail.com</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Emumba Pvt. Limited, Korang Road I-10/3 Islamabad.</t>
@@ -106,7 +134,7 @@
     <t xml:space="preserve">POST</t>
   </si>
   <si>
-    <t xml:space="preserve">{    "first_name": "Ali",    "last_name": "Ahmad",    "email": "ali.ahmad236@gmail.com",    "password": "12345",    "confirm_password": "12345"}</t>
+    <t xml:space="preserve">{    "first_name": "Ali",    "last_name": "Ahmad",    "email": "ali.ahmad23[@here]@gmail.com",    "password": "12345",    "confirm_password": "12345"}</t>
   </si>
   <si>
     <t xml:space="preserve">["email","first_name","last_name","plan","id","access_token","refresh_token"]</t>
@@ -1004,7 +1032,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1026,6 +1054,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1102,8 +1136,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1140,7 +1174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1190,8 +1224,8 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
